--- a/LR4/Сравнение.xlsx
+++ b/LR4/Сравнение.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakepps/GitHub/Distributed_algorithms/LR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31ADAC8-08D1-CF4A-8731-196BA5EDEA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C2082-1434-F149-A315-805BB333E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Скорость работы</t>
   </si>
@@ -58,19 +52,7 @@
     <t>Кол. процессов</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>11</t>
@@ -170,6 +152,828 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Кол. процессов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Кол. Элементов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9D0-104B-ADC5-70A8A0FDB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1180559824"/>
+        <c:axId val="1180561552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1180559824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180561552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1180561552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180559824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1423406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>739366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>26154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB505F3B-56D4-223F-9AC0-069AA84FAB45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,13 +1260,13 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -472,13 +1276,13 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -487,7 +1291,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -501,14 +1305,14 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="3">
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -516,186 +1320,164 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="5"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>